--- a/data/audit/bio/bio_core.xlsx
+++ b/data/audit/bio/bio_core.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="26">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -987,7 +987,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -1137,7 +1137,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57">
@@ -1287,7 +1287,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -1317,7 +1317,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63">
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -1497,7 +1497,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="76">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="88">
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
@@ -1917,7 +1917,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103">
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113">
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119">
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120">
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125">
@@ -2307,7 +2307,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127">
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139">
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159">
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="169">
@@ -2997,7 +2997,7 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187">
@@ -3237,7 +3237,7 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188">
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="192">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>4.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201">
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205">
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208">
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210">
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212">
